--- a/UsersList.xlsx
+++ b/UsersList.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/855e741a176724be/Desktop/SurveiliaFrontEnd-master/SurveiliaFrontEnd-master/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SurveiliaFrontEnd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="11_F25DC773A252ABDACC1048E7719B66D45ADE58EE" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9ACD45EE-B83B-47C3-816F-8D7C0CC30901}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CEE58B1-01A5-445D-AB63-997019A5F78B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Password</t>
   </si>
@@ -52,6 +52,30 @@
   </si>
   <si>
     <t>nauman</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>sdd</t>
+  </si>
+  <si>
+    <t>fd</t>
+  </si>
+  <si>
+    <t>gfg</t>
+  </si>
+  <si>
+    <t>3rwef</t>
+  </si>
+  <si>
+    <t>ger4</t>
+  </si>
+  <si>
+    <t>2342rwe</t>
+  </si>
+  <si>
+    <t>2342gfd</t>
   </si>
 </sst>
 </file>
@@ -369,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -436,6 +460,50 @@
         <v>123456</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
